--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAF3BA5-2971-40BF-9AB5-4D94E55EAF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B905047-DE38-4AAC-98CA-EF68E920CEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diff" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Selenium 3</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>RTP(overriding)</t>
+  </si>
+  <si>
+    <t>ChromiumDriver</t>
+  </si>
+  <si>
+    <t>Not present</t>
+  </si>
+  <si>
+    <t>no minimize</t>
+  </si>
+  <si>
+    <t>we have minimize method</t>
   </si>
 </sst>
 </file>
@@ -404,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +444,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -441,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830C4F9B-8F99-4CDD-987C-8FCFA6FC5491}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B905047-DE38-4AAC-98CA-EF68E920CEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27AEBE3-73C1-4CF7-9142-213D97F4A027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diff" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Selenium 3</t>
   </si>
@@ -99,16 +99,26 @@
   </si>
   <si>
     <t>we have minimize method</t>
+  </si>
+  <si>
+    <t>NoSuchElementException</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,8 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -544,10 +555,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED096DE-29D3-4D14-A487-EDC0F8FE8F73}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,8 +572,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27AEBE3-73C1-4CF7-9142-213D97F4A027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0388ED2D-D09B-4271-B7C2-5682B7C96193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diff" sheetId="1" r:id="rId1"/>
     <sheet name="OOPS" sheetId="2" r:id="rId2"/>
     <sheet name="Exceptions" sheetId="3" r:id="rId3"/>
+    <sheet name="xpath" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Selenium 3</t>
   </si>
@@ -102,6 +103,105 @@
   </si>
   <si>
     <t>NoSuchElementException</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input[1]</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>ABD</t>
+  </si>
+  <si>
+    <t>BCD</t>
+  </si>
+  <si>
+    <t>ACD</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/input[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/input[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/input</t>
+  </si>
+  <si>
+    <t>/html/body/div/input[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div/input[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input[1]|/html/body/div[2]/input[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input[2]|/html/body/div[2]/input[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input|/html/body/div[2]/input[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div/input[1]|/html/body/div[1]/input[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/input|/html/body/div[2]/input[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div/input[2]|/html/body/div[2]/input[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div/input[1]|/html/body/div[2]/input[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div/input</t>
   </si>
 </sst>
 </file>
@@ -557,7 +657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED096DE-29D3-4D14-A487-EDC0F8FE8F73}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -584,4 +684,158 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5745B0DF-80BD-4C90-9D3A-E729ADC9B186}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Selenium.xlsx
+++ b/Selenium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B93 Selenium\Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0388ED2D-D09B-4271-B7C2-5682B7C96193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B446EC6-440D-447B-B955-07993E2D5136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Selenium 3</t>
   </si>
@@ -108,9 +108,6 @@
     <t>element</t>
   </si>
   <si>
-    <t>xpath</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -189,19 +186,64 @@
     <t>/html/body/div[1]/input|/html/body/div[2]/input[1]</t>
   </si>
   <si>
-    <t>/html/body/div/input[1]|/html/body/div[1]/input[2]</t>
-  </si>
-  <si>
     <t>/html/body/div[1]/input|/html/body/div[2]/input[2]</t>
   </si>
   <si>
-    <t>/html/body/div/input[2]|/html/body/div[2]/input[1]</t>
-  </si>
-  <si>
     <t>/html/body/div/input[1]|/html/body/div[2]/input[2]</t>
   </si>
   <si>
     <t>/html/body/div/input</t>
+  </si>
+  <si>
+    <t>absolute xpath</t>
+  </si>
+  <si>
+    <t>relative xpath</t>
+  </si>
+  <si>
+    <t>//div[1]/input[1]</t>
+  </si>
+  <si>
+    <t>//div[1]/input[2]</t>
+  </si>
+  <si>
+    <t>//div[2]/input[1]</t>
+  </si>
+  <si>
+    <t>//div[2]/input[2]</t>
+  </si>
+  <si>
+    <t>//div[1]/input</t>
+  </si>
+  <si>
+    <t>//div[2]/input</t>
+  </si>
+  <si>
+    <t>//input[1]</t>
+  </si>
+  <si>
+    <t>//input[2]</t>
+  </si>
+  <si>
+    <t>//input</t>
+  </si>
+  <si>
+    <t>//div[1]/input[1]|//div[2]/input[2]</t>
+  </si>
+  <si>
+    <t>//div[1]/input[2]|//div[2]/input[1]</t>
+  </si>
+  <si>
+    <t>//div[1]/input|//div[2]/input[1]</t>
+  </si>
+  <si>
+    <t>//div[1]/input|//div[2]/input[2]</t>
+  </si>
+  <si>
+    <t>//div[1]/input[2]|//div[2]/input</t>
+  </si>
+  <si>
+    <t>//input[1]|//div[2]/input[2]</t>
   </si>
 </sst>
 </file>
@@ -691,7 +733,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,133 +748,175 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
+      <c r="C2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
